--- a/all_BA.xlsx
+++ b/all_BA.xlsx
@@ -7363,7 +7363,7 @@
         <v>54</v>
       </c>
       <c r="B57">
-        <v>565714300</v>
+        <v>565900000</v>
       </c>
       <c r="C57">
         <v>565400000</v>
@@ -7488,7 +7488,7 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <v>566400000</v>
+        <v>565900000</v>
       </c>
       <c r="C58">
         <v>565400000</v>
@@ -8112,6 +8112,9 @@
       <c r="A63" t="s">
         <v>60</v>
       </c>
+      <c r="B63">
+        <v>-2406000000</v>
+      </c>
       <c r="C63">
         <v>-785000000</v>
       </c>
@@ -8651,7 +8654,7 @@
         <v>65</v>
       </c>
       <c r="B68">
-        <v>-4.2336</v>
+        <v>-4.2322</v>
       </c>
       <c r="C68">
         <v>-1.1337</v>
@@ -8776,7 +8779,7 @@
         <v>66</v>
       </c>
       <c r="B69">
-        <v>-4.2285</v>
+        <v>-4.2322</v>
       </c>
       <c r="C69">
         <v>-1.1337</v>
@@ -8977,7 +8980,7 @@
         <v>69</v>
       </c>
       <c r="B72">
-        <v>-4.2336</v>
+        <v>-4.2322</v>
       </c>
       <c r="C72">
         <v>-1.1337</v>
@@ -9102,7 +9105,7 @@
         <v>70</v>
       </c>
       <c r="B73">
-        <v>-4.2285</v>
+        <v>-4.2322</v>
       </c>
       <c r="C73">
         <v>-1.1337</v>
@@ -9349,7 +9352,7 @@
         <v>72</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>-0.2038</v>
       </c>
       <c r="C75">
         <v>-0.0464</v>
@@ -11250,7 +11253,7 @@
         <v>87</v>
       </c>
       <c r="B91">
-        <v>560000000</v>
+        <v>-11997000000</v>
       </c>
       <c r="C91">
         <v>-17000000</v>
@@ -11375,7 +11378,7 @@
         <v>88</v>
       </c>
       <c r="B92">
-        <v>-12557000000</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>8000000</v>
@@ -12344,6 +12347,9 @@
       <c r="A100" t="s">
         <v>96</v>
       </c>
+      <c r="B100">
+        <v>42000000</v>
+      </c>
       <c r="C100">
         <v>-84000000</v>
       </c>
@@ -12392,7 +12398,7 @@
         <v>97</v>
       </c>
       <c r="B101">
-        <v>4995000000</v>
+        <v>4953000000</v>
       </c>
       <c r="C101">
         <v>5468000000</v>
@@ -12642,7 +12648,7 @@
         <v>99</v>
       </c>
       <c r="B103">
-        <v>4995000000</v>
+        <v>4953000000</v>
       </c>
       <c r="C103">
         <v>15039000000</v>
@@ -13017,7 +13023,7 @@
         <v>102</v>
       </c>
       <c r="B106">
-        <v>0.2792</v>
+        <v>0.2791</v>
       </c>
       <c r="C106">
         <v>0.2775</v>
@@ -13267,7 +13273,7 @@
         <v>104</v>
       </c>
       <c r="B108">
-        <v>560000000</v>
+        <v>-11997000000</v>
       </c>
       <c r="C108">
         <v>-17000000</v>
@@ -13764,7 +13770,7 @@
         <v>107</v>
       </c>
       <c r="B112">
-        <v>1.5568</v>
+        <v>1.5574</v>
       </c>
       <c r="C112">
         <v>1.1952</v>
@@ -14014,7 +14020,7 @@
         <v>109</v>
       </c>
       <c r="B114">
-        <v>-19.6393</v>
+        <v>-19.6457</v>
       </c>
       <c r="C114">
         <v>-19.6011</v>
@@ -14389,7 +14395,7 @@
         <v>112</v>
       </c>
       <c r="B117">
-        <v>1.9915</v>
+        <v>1.992</v>
       </c>
       <c r="C117">
         <v>1.5269</v>
@@ -14639,7 +14645,7 @@
         <v>114</v>
       </c>
       <c r="B119">
-        <v>-9.3241</v>
+        <v>-9.326499999999999</v>
       </c>
       <c r="C119">
         <v>-11.2965</v>
@@ -14764,7 +14770,7 @@
         <v>115</v>
       </c>
       <c r="B120">
-        <v>-8.313700000000001</v>
+        <v>-8.315799999999999</v>
       </c>
       <c r="C120">
         <v>-9.657</v>
@@ -14889,7 +14895,7 @@
         <v>116</v>
       </c>
       <c r="B121">
-        <v>132644431190</v>
+        <v>132678470000</v>
       </c>
       <c r="C121">
         <v>107723756000</v>
@@ -15014,7 +15020,7 @@
         <v>117</v>
       </c>
       <c r="B122">
-        <v>103695431190</v>
+        <v>103729470000</v>
       </c>
       <c r="C122">
         <v>84323756000</v>
@@ -15389,7 +15395,7 @@
         <v>120</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>-12.032</v>
       </c>
       <c r="C125">
         <v>-29.8089</v>
@@ -16764,7 +16770,7 @@
         <v>131</v>
       </c>
       <c r="B136">
-        <v>-0.4241</v>
+        <v>-0.424</v>
       </c>
       <c r="C136">
         <v>-0.4912</v>
@@ -17389,7 +17395,7 @@
         <v>136</v>
       </c>
       <c r="B141">
-        <v>-0.1539</v>
+        <v>-0.1538</v>
       </c>
       <c r="C141">
         <v>-0.1323</v>
@@ -17514,7 +17520,7 @@
         <v>137</v>
       </c>
       <c r="B142">
-        <v>20.871</v>
+        <v>20.8641</v>
       </c>
       <c r="C142">
         <v>29.9045</v>
@@ -17639,7 +17645,7 @@
         <v>138</v>
       </c>
       <c r="B143">
-        <v>-9.333299999999999</v>
+        <v>-9.330299999999999</v>
       </c>
       <c r="C143">
         <v>-7.6088</v>
@@ -17764,7 +17770,7 @@
         <v>139</v>
       </c>
       <c r="B144">
-        <v>-0.548</v>
+        <v>-0.5478</v>
       </c>
       <c r="C144">
         <v>-0.6544</v>
@@ -17889,7 +17895,7 @@
         <v>140</v>
       </c>
       <c r="B145">
-        <v>-9.8813</v>
+        <v>-9.8781</v>
       </c>
       <c r="C145">
         <v>-8.263199999999999</v>
@@ -18139,7 +18145,7 @@
         <v>142</v>
       </c>
       <c r="B147">
-        <v>57.3258</v>
+        <v>57.3069</v>
       </c>
       <c r="C147">
         <v>27.462</v>
@@ -18264,7 +18270,7 @@
         <v>143</v>
       </c>
       <c r="B148">
-        <v>-20.1197</v>
+        <v>-20.1131</v>
       </c>
       <c r="C148">
         <v>-16.5547</v>
@@ -18389,7 +18395,7 @@
         <v>144</v>
       </c>
       <c r="B149">
-        <v>108.4982</v>
+        <v>108.4626</v>
       </c>
       <c r="C149">
         <v>68.8486</v>
@@ -20998,6 +21004,9 @@
       <c r="A170" t="s">
         <v>163</v>
       </c>
+      <c r="B170">
+        <v>-1</v>
+      </c>
       <c r="C170">
         <v>0.0004</v>
       </c>
@@ -21245,6 +21254,9 @@
       <c r="A172" t="s">
         <v>165</v>
       </c>
+      <c r="B172">
+        <v>-5.9012</v>
+      </c>
       <c r="C172">
         <v>-2.9491</v>
       </c>
@@ -21368,7 +21380,7 @@
         <v>166</v>
       </c>
       <c r="B173">
-        <v>0.0018</v>
+        <v>0.0021</v>
       </c>
       <c r="C173">
         <v>-0.003</v>
@@ -21493,7 +21505,7 @@
         <v>167</v>
       </c>
       <c r="B174">
-        <v>0.003</v>
+        <v>0.0021</v>
       </c>
       <c r="C174">
         <v>-0.0112</v>
@@ -21991,6 +22003,9 @@
     <row r="178" spans="1:41">
       <c r="A178" t="s">
         <v>171</v>
+      </c>
+      <c r="B178">
+        <v>2.1942</v>
       </c>
       <c r="C178">
         <v>1.6402</v>
